--- a/UI_Test.xlsx
+++ b/UI_Test.xlsx
@@ -471,10 +471,6 @@
     <t>Xem thêm thông tin người dung đã cung cấp</t>
   </si>
   <si>
-    <t>Trong hồ sơ khi xem thêm thông tin người dùng, kiểm tra 
-xem có đầy đủ ảnh, thông tin người dùng cung cấp không, ảnh, các nút có hiển thị rõ ràng, đúng với kích thước đã design trước không</t>
-  </si>
-  <si>
     <t>Hiển thị đầy đủ thông tin mà người dùng cung cấp
 Ảnh, các nút hiển thị rõ ràng, đúng với kích thước đã design trước</t>
   </si>
@@ -1017,6 +1013,9 @@
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>Trong hồ sơ khi xem thêm thông tin người dùng, kiểm tra xem có đầy đủ ảnh, thông tin người dùng cung cấp không, ảnh, các nút có hiển thị rõ ràng, đúng với kích thước đã design trước không</t>
   </si>
 </sst>
 </file>
@@ -1343,8 +1342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1381,7 +1380,7 @@
         <v>121</v>
       </c>
       <c r="D2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1395,7 +1394,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1412,7 +1411,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -1429,7 +1428,7 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -1446,7 +1445,7 @@
         <v>125</v>
       </c>
       <c r="D6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
@@ -1463,7 +1462,7 @@
         <v>116</v>
       </c>
       <c r="D7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E7" t="s">
         <v>20</v>
@@ -1480,7 +1479,7 @@
         <v>126</v>
       </c>
       <c r="D8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E8" t="s">
         <v>23</v>
@@ -1497,7 +1496,7 @@
         <v>117</v>
       </c>
       <c r="D9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E9" t="s">
         <v>26</v>
@@ -1814,10 +1813,10 @@
         <v>82</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" t="s">
         <v>144</v>
-      </c>
-      <c r="C32" t="s">
-        <v>145</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
@@ -1896,10 +1895,10 @@
     </row>
     <row r="37" spans="1:5" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1989,750 +1988,750 @@
     </row>
     <row r="44" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>145</v>
+      </c>
+      <c r="B44" t="s">
         <v>146</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" t="s">
         <v>148</v>
-      </c>
-      <c r="D44" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>149</v>
+      </c>
+      <c r="B45" t="s">
         <v>150</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>151</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" t="s">
         <v>152</v>
-      </c>
-      <c r="D45" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>153</v>
+      </c>
+      <c r="B46" t="s">
         <v>154</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>155</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" t="s">
         <v>156</v>
-      </c>
-      <c r="D46" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>157</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" t="s">
         <v>160</v>
-      </c>
-      <c r="D47" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>161</v>
+      </c>
+      <c r="B48" t="s">
         <v>162</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>163</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" t="s">
         <v>164</v>
-      </c>
-      <c r="D48" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>165</v>
+      </c>
+      <c r="B50" t="s">
         <v>166</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>167</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" t="s">
         <v>168</v>
-      </c>
-      <c r="D50" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>169</v>
+      </c>
+      <c r="B51" t="s">
         <v>170</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>171</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" t="s">
         <v>172</v>
-      </c>
-      <c r="D51" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>173</v>
+      </c>
+      <c r="B52" t="s">
         <v>174</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>175</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" t="s">
         <v>176</v>
-      </c>
-      <c r="D52" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>177</v>
+      </c>
+      <c r="B53" t="s">
         <v>178</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>179</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" t="s">
         <v>180</v>
-      </c>
-      <c r="D53" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>181</v>
+      </c>
+      <c r="B54" t="s">
         <v>182</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>183</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" t="s">
         <v>184</v>
-      </c>
-      <c r="D54" t="s">
-        <v>7</v>
-      </c>
-      <c r="E54" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>185</v>
+      </c>
+      <c r="B55" t="s">
         <v>186</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>187</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" t="s">
         <v>188</v>
-      </c>
-      <c r="D55" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>189</v>
+      </c>
+      <c r="B56" t="s">
         <v>190</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>191</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" t="s">
         <v>192</v>
-      </c>
-      <c r="D56" t="s">
-        <v>7</v>
-      </c>
-      <c r="E56" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>193</v>
+      </c>
+      <c r="B57" t="s">
         <v>194</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>195</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" t="s">
         <v>196</v>
-      </c>
-      <c r="D57" t="s">
-        <v>7</v>
-      </c>
-      <c r="E57" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>197</v>
+      </c>
+      <c r="B58" t="s">
         <v>198</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>199</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" t="s">
         <v>200</v>
-      </c>
-      <c r="D58" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>201</v>
+      </c>
+      <c r="B59" t="s">
         <v>202</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>203</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" t="s">
         <v>204</v>
-      </c>
-      <c r="D59" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>205</v>
+      </c>
+      <c r="B60" t="s">
         <v>206</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>207</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" t="s">
         <v>208</v>
-      </c>
-      <c r="D60" t="s">
-        <v>7</v>
-      </c>
-      <c r="E60" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>209</v>
+      </c>
+      <c r="B61" t="s">
         <v>210</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>211</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" t="s">
         <v>212</v>
-      </c>
-      <c r="D61" t="s">
-        <v>7</v>
-      </c>
-      <c r="E61" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>213</v>
+      </c>
+      <c r="B63" t="s">
         <v>214</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>215</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" t="s">
         <v>216</v>
-      </c>
-      <c r="D63" t="s">
-        <v>7</v>
-      </c>
-      <c r="E63" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>217</v>
+      </c>
+      <c r="B64" t="s">
         <v>218</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>219</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" t="s">
         <v>220</v>
-      </c>
-      <c r="D64" t="s">
-        <v>7</v>
-      </c>
-      <c r="E64" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>221</v>
+      </c>
+      <c r="B65" t="s">
         <v>222</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>223</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" t="s">
         <v>224</v>
-      </c>
-      <c r="D65" t="s">
-        <v>7</v>
-      </c>
-      <c r="E65" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>225</v>
+      </c>
+      <c r="B67" t="s">
         <v>226</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>227</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" t="s">
         <v>228</v>
-      </c>
-      <c r="D67" t="s">
-        <v>7</v>
-      </c>
-      <c r="E67" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>229</v>
+      </c>
+      <c r="B68" t="s">
         <v>230</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>231</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" t="s">
         <v>232</v>
-      </c>
-      <c r="D68" t="s">
-        <v>7</v>
-      </c>
-      <c r="E68" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>233</v>
+      </c>
+      <c r="B69" t="s">
         <v>234</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>235</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" t="s">
         <v>236</v>
-      </c>
-      <c r="D69" t="s">
-        <v>7</v>
-      </c>
-      <c r="E69" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>237</v>
+      </c>
+      <c r="B70" t="s">
         <v>238</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>239</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" t="s">
         <v>240</v>
-      </c>
-      <c r="D70" t="s">
-        <v>7</v>
-      </c>
-      <c r="E70" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>241</v>
+      </c>
+      <c r="B71" t="s">
         <v>242</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>243</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" t="s">
         <v>244</v>
-      </c>
-      <c r="D71" t="s">
-        <v>7</v>
-      </c>
-      <c r="E71" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
+        <v>245</v>
+      </c>
+      <c r="B72" t="s">
         <v>246</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>247</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" t="s">
         <v>248</v>
-      </c>
-      <c r="D72" t="s">
-        <v>7</v>
-      </c>
-      <c r="E72" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>249</v>
+      </c>
+      <c r="B73" t="s">
         <v>250</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>251</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" t="s">
         <v>252</v>
-      </c>
-      <c r="D73" t="s">
-        <v>7</v>
-      </c>
-      <c r="E73" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
+        <v>253</v>
+      </c>
+      <c r="B74" t="s">
         <v>254</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>255</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" t="s">
         <v>256</v>
-      </c>
-      <c r="D74" t="s">
-        <v>7</v>
-      </c>
-      <c r="E74" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>257</v>
+      </c>
+      <c r="B75" t="s">
         <v>258</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>259</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" t="s">
         <v>260</v>
-      </c>
-      <c r="D75" t="s">
-        <v>7</v>
-      </c>
-      <c r="E75" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
+        <v>261</v>
+      </c>
+      <c r="B77" t="s">
         <v>262</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>263</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" t="s">
         <v>264</v>
-      </c>
-      <c r="D77" t="s">
-        <v>7</v>
-      </c>
-      <c r="E77" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
+        <v>265</v>
+      </c>
+      <c r="B78" t="s">
         <v>266</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>267</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" t="s">
         <v>268</v>
-      </c>
-      <c r="D78" t="s">
-        <v>7</v>
-      </c>
-      <c r="E78" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
+        <v>269</v>
+      </c>
+      <c r="B79" t="s">
         <v>270</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>271</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" t="s">
         <v>272</v>
-      </c>
-      <c r="D79" t="s">
-        <v>7</v>
-      </c>
-      <c r="E79" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
+        <v>273</v>
+      </c>
+      <c r="B80" t="s">
         <v>274</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>275</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" t="s">
         <v>276</v>
-      </c>
-      <c r="D80" t="s">
-        <v>7</v>
-      </c>
-      <c r="E80" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
+        <v>277</v>
+      </c>
+      <c r="B81" t="s">
         <v>278</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>279</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81" t="s">
         <v>280</v>
-      </c>
-      <c r="D81" t="s">
-        <v>7</v>
-      </c>
-      <c r="E81" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
+        <v>281</v>
+      </c>
+      <c r="B82" t="s">
         <v>282</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>283</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" t="s">
         <v>284</v>
-      </c>
-      <c r="D82" t="s">
-        <v>7</v>
-      </c>
-      <c r="E82" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
+        <v>285</v>
+      </c>
+      <c r="B84" t="s">
         <v>286</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>287</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" t="s">
         <v>288</v>
-      </c>
-      <c r="D84" t="s">
-        <v>7</v>
-      </c>
-      <c r="E84" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
+        <v>289</v>
+      </c>
+      <c r="B85" t="s">
         <v>290</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>291</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" t="s">
         <v>292</v>
-      </c>
-      <c r="D85" t="s">
-        <v>7</v>
-      </c>
-      <c r="E85" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
+        <v>293</v>
+      </c>
+      <c r="B86" t="s">
         <v>294</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>295</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" t="s">
         <v>296</v>
-      </c>
-      <c r="D86" t="s">
-        <v>7</v>
-      </c>
-      <c r="E86" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
+        <v>297</v>
+      </c>
+      <c r="B88" t="s">
         <v>298</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>299</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" t="s">
         <v>300</v>
-      </c>
-      <c r="D88" t="s">
-        <v>7</v>
-      </c>
-      <c r="E88" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
+        <v>301</v>
+      </c>
+      <c r="B89" t="s">
         <v>302</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>303</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" t="s">
         <v>304</v>
-      </c>
-      <c r="D89" t="s">
-        <v>7</v>
-      </c>
-      <c r="E89" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
+        <v>305</v>
+      </c>
+      <c r="B91" t="s">
         <v>306</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>307</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" t="s">
         <v>308</v>
-      </c>
-      <c r="D91" t="s">
-        <v>7</v>
-      </c>
-      <c r="E91" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
+        <v>309</v>
+      </c>
+      <c r="B92" t="s">
         <v>310</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>311</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" t="s">
         <v>312</v>
-      </c>
-      <c r="D92" t="s">
-        <v>7</v>
-      </c>
-      <c r="E92" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
+        <v>313</v>
+      </c>
+      <c r="B93" t="s">
         <v>314</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>315</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" t="s">
         <v>316</v>
-      </c>
-      <c r="D93" t="s">
-        <v>7</v>
-      </c>
-      <c r="E93" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
+        <v>317</v>
+      </c>
+      <c r="B94" t="s">
         <v>318</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>319</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" t="s">
         <v>320</v>
-      </c>
-      <c r="D94" t="s">
-        <v>7</v>
-      </c>
-      <c r="E94" t="s">
-        <v>321</v>
       </c>
     </row>
   </sheetData>
